--- a/metrics/MAPE/Microalbuminuria.xlsx
+++ b/metrics/MAPE/Microalbuminuria.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01707943973932144</v>
+        <v>0.01683595882481949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01694320678935366</v>
+        <v>0.01706319541886724</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01722905187703533</v>
+        <v>0.01672556399350237</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01367246058730587</v>
+        <v>0.01366586480483498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01367209923066148</v>
+        <v>0.01367337213647552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01367749588796484</v>
+        <v>0.01366486230213925</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.04195530469484704</v>
+        <v>0.04303765909705543</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04894679895652241</v>
+        <v>0.0460399694020926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04406733054950857</v>
+        <v>0.04362991710717549</v>
       </c>
     </row>
   </sheetData>
